--- a/data/trans_dic/P16B08-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16B08-Estudios-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B08-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16B08-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,24%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,91%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,32%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,53%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,88%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,84%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,65%</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>64,61; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>92,07; 100</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>69,36; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>89,75; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,42</t>
+          <t>92,09; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>85,12; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,9</t>
+          <t>85,1; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,42</t>
+          <t>94,26; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>89,67; 100,0</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,49%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,69%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,64%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,04%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,25%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,1%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,42%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,06%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,45</t>
+          <t>73,01; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,09</t>
+          <t>96,91; 100</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,42</t>
+          <t>89,65; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>91,47; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,96</t>
+          <t>95,15; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>92,36; 99,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,94</t>
+          <t>89,48; 99,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,21</t>
+          <t>96,77; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,19</t>
+          <t>93,47; 98,85</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,57%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,63%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,24%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,3%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,48%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,49%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,24%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 9,05</t>
+          <t>71,5; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 9,05</t>
+          <t>90,95; 100</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>61,63; 96,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>89,47; 100</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>73,19; 96,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>74,75; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>85,27; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,75</t>
+          <t>81,82; 98,13</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>78,74; 97,11</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,22%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,54%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,61%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,82%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,91%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,91%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,73%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,62</t>
+          <t>79,66; 97,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,83</t>
+          <t>98,17; 100</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,94</t>
+          <t>85,85; 97,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>95,19; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,05</t>
+          <t>93,61; 98,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,09</t>
+          <t>92,22; 98,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,95</t>
+          <t>90,81; 98,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,67</t>
+          <t>95,94; 99,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>92,32; 97,62</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B08-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16B08-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,7 +686,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>64,61; 100,0</t>
+          <t>63,76; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,37 +696,37 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>69,36; 100,0</t>
+          <t>75,43; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>89,75; 100,0</t>
+          <t>91,4; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>92,09; 100,0</t>
+          <t>91,42; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>85,12; 100,0</t>
+          <t>88,93; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>85,1; 100,0</t>
+          <t>88,04; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>94,26; 100,0</t>
+          <t>94,96; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>89,67; 100,0</t>
+          <t>89,68; 100,0</t>
         </is>
       </c>
     </row>
@@ -795,7 +796,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>73,01; 100,0</t>
+          <t>74,81; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -805,37 +806,37 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>89,65; 100,0</t>
+          <t>87,98; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>91,47; 100,0</t>
+          <t>91,66; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>95,15; 100,0</t>
+          <t>94,78; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>92,36; 99,19</t>
+          <t>92,58; 99,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>89,48; 99,12</t>
+          <t>88,52; 99,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>96,77; 100,0</t>
+          <t>97,32; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>93,47; 98,85</t>
+          <t>93,57; 98,87</t>
         </is>
       </c>
     </row>
@@ -905,7 +906,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>71,5; 100,0</t>
+          <t>73,18; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -915,7 +916,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>61,63; 96,19</t>
+          <t>63,43; 95,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -925,27 +926,27 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>73,19; 96,93</t>
+          <t>70,21; 96,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>74,75; 100,0</t>
+          <t>81,65; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>85,27; 100,0</t>
+          <t>85,38; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>81,82; 98,13</t>
+          <t>82,76; 98,23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>78,74; 97,11</t>
+          <t>79,23; 97,18</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1016,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>79,66; 97,04</t>
+          <t>78,89; 97,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1025,37 +1026,37 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>85,85; 97,19</t>
+          <t>87,54; 97,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>95,19; 100,0</t>
+          <t>95,29; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>93,61; 98,89</t>
+          <t>93,07; 98,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>92,22; 98,97</t>
+          <t>92,4; 98,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>90,81; 98,16</t>
+          <t>91,69; 98,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>95,94; 99,07</t>
+          <t>95,98; 99,34</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>92,32; 97,62</t>
+          <t>92,49; 97,65</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyos medicamentos para la alergia fueron recetados por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>16285</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>26445</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>19066</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>47040</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>57328</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>38847</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>63325</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>83773</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>57914</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>11507; 18047</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>24348; 26445</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15152; 20088</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>43869; 47998</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>53308; 58309</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>35421; 39832</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>58149; 66045</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>80480; 84754</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>53737; 59920</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>32806</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>65273</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>56451</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>64024</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>101901</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>107002</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>96830</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>167175</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>163452</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>26825; 35856</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>63258; 65273</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>51362; 58380</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>59494; 64905</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>97517; 102884</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>101860; 109139</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>89198; 99858</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>163656; 168158</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>157573; 166507</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>20437</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>23025</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>20095</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>19374</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>28731</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>36859</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>39811</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>51755</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>56954</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>16334; 22320</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>20942; 23025</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>15060; 22776</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>17333; 19374</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>23124; 31905</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>31579; 38678</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>35597; 41694</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>46310; 54966</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>49455; 60663</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>69528</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>114743</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>95612</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>130438</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>187959</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>182707</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>199965</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>302703</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>278319</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>60132; 74004</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>112648; 114743</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>89476; 99628</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>126046; 132277</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>180665; 191997</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>174211; 186425</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>191171; 204862</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>296439; 306820</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>268922; 283926</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>